--- a/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
@@ -5312,12 +5312,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1196</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5327,12 +5327,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">

--- a/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en Andalucia</t>
+          <t>Percepción de olores en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4435,7 +4435,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en C.Valenciana</t>
+          <t>Percepción de olores en C.Valenciana (tasa de respuesta: 93,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>191169</t>
+          <t>192710</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>225141</t>
+          <t>225532</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>133383</t>
+          <t>136164</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>165577</t>
+          <t>166000</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>89,82%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>339711</t>
+          <t>338495</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>384427</t>
+          <t>385910</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>80,77%</t>
+          <t>80,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>91,75%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8123</t>
+          <t>7432</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38401</t>
+          <t>37506</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13794</t>
+          <t>13290</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>43819</t>
+          <t>42938</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>25721</t>
+          <t>25260</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>68110</t>
+          <t>68071</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>16,18%</t>
         </is>
       </c>
     </row>
@@ -970,7 +970,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22463</t>
+          <t>22196</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1670</t>
+          <t>1694</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16807</t>
+          <t>17146</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27703</t>
+          <t>28737</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>194030</t>
+          <t>193123</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>216174</t>
+          <t>217105</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,59%</t>
+          <t>84,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>285713</t>
+          <t>284848</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>307431</t>
+          <t>306989</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,77%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>487051</t>
+          <t>486245</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>520573</t>
+          <t>520487</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,71%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8039</t>
+          <t>7982</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28644</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6713</t>
+          <t>6582</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27282</t>
+          <t>26693</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18230</t>
+          <t>18455</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>46251</t>
+          <t>47437</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15570</t>
+          <t>16957</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>7269</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20018</t>
+          <t>18886</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>263975</t>
+          <t>265056</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>287879</t>
+          <t>289698</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,31%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,63%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>266329</t>
+          <t>265185</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>286841</t>
+          <t>287143</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>82,74%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>538070</t>
+          <t>536647</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>569422</t>
+          <t>569035</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>85,01%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>90,14%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14616</t>
+          <t>14141</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35305</t>
+          <t>35081</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21685</t>
+          <t>22714</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>40181</t>
+          <t>41019</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>41842</t>
+          <t>42196</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>67319</t>
+          <t>68212</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3568</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17168</t>
+          <t>18007</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9091</t>
+          <t>8977</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21991</t>
+          <t>21327</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>15047</t>
+          <t>14993</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>33745</t>
+          <t>33789</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>557127</t>
+          <t>556221</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>613898</t>
+          <t>613749</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,83%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>340624</t>
+          <t>340667</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>362023</t>
+          <t>362199</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>84,25%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,53%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>903496</t>
+          <t>905013</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>985373</t>
+          <t>988836</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,74%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>95,86%</t>
         </is>
       </c>
     </row>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9263</t>
+          <t>8940</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52157</t>
+          <t>52140</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29862</t>
+          <t>29674</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>49276</t>
+          <t>47742</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>31708</t>
+          <t>32737</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>94720</t>
+          <t>94192</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>2489</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23644</t>
+          <t>23140</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8209</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>19759</t>
+          <t>20371</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>10901</t>
+          <t>11144</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>38066</t>
+          <t>37386</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>288411</t>
+          <t>288091</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>310847</t>
+          <t>310544</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,8%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>261936</t>
+          <t>263387</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>282333</t>
+          <t>282601</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2613,12 +2613,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>81,98%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>557409</t>
+          <t>557807</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>586375</t>
+          <t>587482</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,33%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>88,82%</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23515</t>
+          <t>23545</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>43514</t>
+          <t>44135</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31720</t>
+          <t>31302</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>50776</t>
+          <t>49008</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>59670</t>
+          <t>58779</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>86950</t>
+          <t>85684</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3293</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13023</t>
+          <t>13008</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5073</t>
+          <t>4789</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>14208</t>
+          <t>13139</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10014</t>
+          <t>10217</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>23486</t>
+          <t>23870</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3019,12 +3019,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>177964</t>
+          <t>176618</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>192229</t>
+          <t>192213</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>402307</t>
+          <t>403036</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>442914</t>
+          <t>446206</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,58%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>587955</t>
+          <t>587188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>642782</t>
+          <t>641862</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>97,14%</t>
         </is>
       </c>
     </row>
@@ -3132,12 +3132,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12671</t>
+          <t>12571</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25936</t>
+          <t>26131</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>7383</t>
+          <t>4888</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>40875</t>
+          <t>40952</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>14941</t>
+          <t>15051</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>59656</t>
+          <t>60678</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -3245,12 +3245,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8450</t>
+          <t>8580</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3260,12 +3260,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>675</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>10529</t>
+          <t>10702</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3315,12 +3315,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>15940</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>131044</t>
+          <t>130300</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>142855</t>
+          <t>142572</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3490,12 +3490,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>200637</t>
+          <t>200363</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>214648</t>
+          <t>214578</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>85,37%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>336159</t>
+          <t>334850</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>354332</t>
+          <t>353799</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,54%</t>
         </is>
       </c>
     </row>
@@ -3588,12 +3588,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>6560</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16764</t>
+          <t>16661</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>15232</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>28273</t>
+          <t>28095</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>24416</t>
+          <t>24477</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>40874</t>
+          <t>40627</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,51%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8115</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>9785</t>
+          <t>9506</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>5136</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>14916</t>
+          <t>14469</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1868808</t>
+          <t>1866569</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1978657</t>
+          <t>1972079</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3966,12 +3966,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1946063</t>
+          <t>1951309</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2059518</t>
+          <t>2066705</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3981,12 +3981,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>3829482</t>
+          <t>3835381</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3986974</t>
+          <t>3982726</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>88,46%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,86%</t>
         </is>
       </c>
     </row>
@@ -4044,12 +4044,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>97147</t>
+          <t>97858</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>182437</t>
+          <t>181294</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4059,12 +4059,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4079,12 +4079,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>139658</t>
+          <t>129680</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>227155</t>
+          <t>222667</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4094,12 +4094,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4114,12 +4114,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>265393</t>
+          <t>267943</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>394718</t>
+          <t>391942</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -4157,12 +4157,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>29639</t>
+          <t>29715</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>65495</t>
+          <t>66583</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4192,12 +4192,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>37263</t>
+          <t>37067</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>68857</t>
+          <t>69859</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4207,12 +4207,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4227,12 +4227,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>76540</t>
+          <t>77076</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>126433</t>
+          <t>125733</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Edad-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>212206</t>
+          <t>218904</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>192710</t>
+          <t>200534</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>225532</t>
+          <t>231364</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>153344</t>
+          <t>182554</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>136164</t>
+          <t>163906</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>166000</t>
+          <t>195782</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>365550</t>
+          <t>401459</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>338495</t>
+          <t>374958</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>385910</t>
+          <t>422245</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>87,1%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>91,61%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18590</t>
+          <t>17526</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>6892</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37506</t>
+          <t>35641</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>25016</t>
+          <t>31261</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13290</t>
+          <t>18944</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>42938</t>
+          <t>49374</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>22,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>43606</t>
+          <t>48787</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>25260</t>
+          <t>29708</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>68071</t>
+          <t>72274</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,68%</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5440</t>
+          <t>4834</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -970,12 +970,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22196</t>
+          <t>19024</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,67 +995,67 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5993</t>
+          <t>5840</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>1674</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17146</t>
+          <t>16867</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10674</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25609</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
           <t>0,92%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>9,3%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>11433</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>4605</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>28737</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,56%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>207041</t>
+          <t>232222</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>193123</t>
+          <t>215766</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>217105</t>
+          <t>244754</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>296928</t>
+          <t>262375</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>284848</t>
+          <t>250784</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>306989</t>
+          <t>270218</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>95,33%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>503968</t>
+          <t>494596</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>486245</t>
+          <t>475774</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>520487</t>
+          <t>509673</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>90,68%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,42%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>93,44%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15772</t>
+          <t>22722</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7982</t>
+          <t>12012</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29775</t>
+          <t>37927</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15549</t>
+          <t>19142</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6582</t>
+          <t>11366</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26693</t>
+          <t>29805</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>31321</t>
+          <t>41864</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18455</t>
+          <t>27956</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>47437</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>10,67%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6555</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16957</t>
+          <t>19144</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1461,57 +1461,57 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7269</t>
+          <t>7109</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,51%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8966</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3405</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19185</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
           <t>0,62%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>2,31%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>8506</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>2748</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>18886</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,52%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>277625</t>
+          <t>325182</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>265056</t>
+          <t>310264</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>289698</t>
+          <t>338808</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>277386</t>
+          <t>319895</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>265185</t>
+          <t>306523</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>287143</t>
+          <t>330885</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>85,85%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>555011</t>
+          <t>645077</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>536647</t>
+          <t>624506</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>569035</t>
+          <t>661344</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,46%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,01%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>89,66%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23365</t>
+          <t>29755</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14141</t>
+          <t>19075</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35081</t>
+          <t>42657</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30581</t>
+          <t>36950</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22714</t>
+          <t>28025</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41019</t>
+          <t>48437</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>53946</t>
+          <t>66705</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>42196</t>
+          <t>53308</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>68212</t>
+          <t>82994</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -1872,27 +1872,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8430</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>4107</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18007</t>
+          <t>21254</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13916</t>
+          <t>15795</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8977</t>
+          <t>10427</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>21327</t>
+          <t>24767</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>22346</t>
+          <t>25794</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>14993</t>
+          <t>17196</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>33789</t>
+          <t>38169</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,17%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>309420</t>
+          <t>364937</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>321883</t>
+          <t>372639</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>631304</t>
+          <t>737576</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>631304</t>
+          <t>737576</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>631304</t>
+          <t>737576</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>587693</t>
+          <t>379020</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>556221</t>
+          <t>365056</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>613749</t>
+          <t>391567</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>89,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>352091</t>
+          <t>377928</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>340667</t>
+          <t>365417</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>362199</t>
+          <t>389656</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>939785</t>
+          <t>756948</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>905013</t>
+          <t>737887</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>988836</t>
+          <t>774060</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>87,53%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>89,51%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28073</t>
+          <t>31975</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8940</t>
+          <t>21361</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>52140</t>
+          <t>43368</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38697</t>
+          <t>47055</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29674</t>
+          <t>37083</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47742</t>
+          <t>58169</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>66770</t>
+          <t>79030</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>32737</t>
+          <t>64568</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>94192</t>
+          <t>96284</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11398</t>
+          <t>12945</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>6815</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23140</t>
+          <t>21415</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13577</t>
+          <t>15855</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>10031</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>20371</t>
+          <t>23620</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>24974</t>
+          <t>28800</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>11144</t>
+          <t>20683</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>37386</t>
+          <t>41129</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>404365</t>
+          <t>440837</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>404365</t>
+          <t>440837</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>404365</t>
+          <t>440837</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1031530</t>
+          <t>864778</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1031530</t>
+          <t>864778</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1031530</t>
+          <t>864778</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>300212</t>
+          <t>328842</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>288091</t>
+          <t>315955</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>310544</t>
+          <t>339260</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>273262</t>
+          <t>304104</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>263387</t>
+          <t>293023</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>282601</t>
+          <t>314970</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>87,96%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,32 +2628,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>573474</t>
+          <t>632946</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>557807</t>
+          <t>616200</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>587482</t>
+          <t>647199</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>86,69%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,82%</t>
+          <t>88,64%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>32682</t>
+          <t>32817</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23545</t>
+          <t>23264</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>44135</t>
+          <t>43942</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39452</t>
+          <t>47305</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31302</t>
+          <t>37542</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>49008</t>
+          <t>58284</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>72134</t>
+          <t>80122</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>58779</t>
+          <t>66587</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>85684</t>
+          <t>95015</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7232</t>
+          <t>7371</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13008</t>
+          <t>13328</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,22 +2819,22 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>8579</t>
+          <t>9689</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>5387</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>13139</t>
+          <t>14653</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>15811</t>
+          <t>17060</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>10217</t>
+          <t>10986</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>23870</t>
+          <t>25370</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>340126</t>
+          <t>369030</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>321293</t>
+          <t>361098</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>321293</t>
+          <t>361098</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>321293</t>
+          <t>361098</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>661419</t>
+          <t>730128</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>661419</t>
+          <t>730128</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>661419</t>
+          <t>730128</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>185597</t>
+          <t>206468</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>176618</t>
+          <t>196993</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>192213</t>
+          <t>214004</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>85,18%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>427812</t>
+          <t>243323</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>403036</t>
+          <t>235444</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>446206</t>
+          <t>250102</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>87,19%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>613411</t>
+          <t>449790</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>587188</t>
+          <t>438743</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>641862</t>
+          <t>459922</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>91,75%</t>
         </is>
       </c>
     </row>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>18622</t>
+          <t>20533</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12571</t>
+          <t>13766</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>26131</t>
+          <t>28604</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3162,32 +3162,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>20357</t>
+          <t>21830</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>15972</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>40952</t>
+          <t>28496</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>38980</t>
+          <t>42363</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>15051</t>
+          <t>33786</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>60678</t>
+          <t>52814</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>10,54%</t>
         </is>
       </c>
     </row>
@@ -3240,32 +3240,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3865</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1427</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8580</t>
+          <t>9557</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3275,32 +3275,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>4879</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>10702</t>
+          <t>9242</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3310,32 +3310,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>8337</t>
+          <t>9151</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3129</t>
+          <t>5286</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>15940</t>
+          <t>15281</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>137501</t>
+          <t>148553</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>130300</t>
+          <t>140268</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>142572</t>
+          <t>154639</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>208145</t>
+          <t>227579</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>200363</t>
+          <t>217841</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>214578</t>
+          <t>234835</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>91,42%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,32 +3540,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>345646</t>
+          <t>376131</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>334850</t>
+          <t>363937</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>353799</t>
+          <t>385477</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>88,84%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>91,05%</t>
         </is>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10650</t>
+          <t>12920</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6560</t>
+          <t>8145</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>16661</t>
+          <t>20127</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>21109</t>
+          <t>24294</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>15232</t>
+          <t>17647</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>28095</t>
+          <t>32855</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>31759</t>
+          <t>37213</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>24477</t>
+          <t>29042</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>40627</t>
+          <t>47946</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -3696,32 +3696,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>8343</t>
+          <t>9489</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3731,27 +3731,27 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>5456</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>9506</t>
+          <t>10452</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
@@ -3766,32 +3766,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>9080</t>
+          <t>10043</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>5136</t>
+          <t>5685</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>14469</t>
+          <t>16183</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3926,32 +3926,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>1907876</t>
+          <t>1839192</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1866569</t>
+          <t>1804366</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1972079</t>
+          <t>1868223</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>89,37%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3961,32 +3961,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1988968</t>
+          <t>1917756</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1951309</t>
+          <t>1889052</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2066705</t>
+          <t>1945747</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>85,65%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3996,32 +3996,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>3896844</t>
+          <t>3756947</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>3835381</t>
+          <t>3712838</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3982726</t>
+          <t>3802184</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>91,86%</t>
+          <t>89,18%</t>
         </is>
       </c>
     </row>
@@ -4039,32 +4039,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>147754</t>
+          <t>168249</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>97858</t>
+          <t>141387</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>181294</t>
+          <t>200349</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4074,32 +4074,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>190763</t>
+          <t>227836</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>129680</t>
+          <t>202616</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>222667</t>
+          <t>255079</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>10,33%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4109,32 +4109,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>338517</t>
+          <t>396085</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>267943</t>
+          <t>354998</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>391942</t>
+          <t>436477</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -4152,102 +4152,102 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>46544</t>
+          <t>50560</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>29715</t>
+          <t>35843</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>66583</t>
+          <t>69092</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>59929</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>46153</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>75436</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>110488</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>91234</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>135036</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
           <t>3,17%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>53943</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>37067</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>69859</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>3,13%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>100487</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>77076</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>125733</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="W34" s="2" t="inlineStr">
-        <is>
-          <t>2,9%</t>
         </is>
       </c>
     </row>
@@ -4265,17 +4265,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>2102174</t>
+          <t>2058001</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2102174</t>
+          <t>2058001</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>2102174</t>
+          <t>2058001</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2233674</t>
+          <t>2205520</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2233674</t>
+          <t>2205520</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>2233674</t>
+          <t>2205520</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>4335848</t>
+          <t>4263520</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>4335848</t>
+          <t>4263520</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>4335848</t>
+          <t>4263520</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
